--- a/BalanceSheet/TXN_bal.xlsx
+++ b/BalanceSheet/TXN_bal.xlsx
@@ -5324,7 +5324,7 @@
         <v>1808000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>748000000.0</v>
+        <v>416000000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>734000000.0</v>
@@ -5451,7 +5451,7 @@
         <v>6550000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>6135000000.0</v>
+        <v>5803000000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>5801000000.0</v>
